--- a/Threshold/Fe/2HIs_1Glu/3.xlsx
+++ b/Threshold/Fe/2HIs_1Glu/3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Metal_installer_geometric_parameters\Fe\2His_1Glu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\250330_Metal_installer_revision\Fe\2His_1Glu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE145219-4283-41CD-A547-3A760D25D611}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{42D5B64C-3E07-435B-B0CD-9A45BAC2890A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11190" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -488,7 +488,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
